--- a/notebooks/PMP22/input/PMP22_HNPP_individuals.xlsx
+++ b/notebooks/PMP22/input/PMP22_HNPP_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/PMP22/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B75F82C-D9DB-5543-A78A-E011899FE618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A873A1EC-3874-4F43-9740-9AF9C4D2736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="35640" windowHeight="8660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>HP:0006937I</t>
-  </si>
-  <si>
     <t>Impaired distal tactile sensation</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>HP:0009077</t>
+  </si>
+  <si>
+    <t>HP:0006937</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>
@@ -670,19 +670,19 @@
         <v>23</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="AB1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
         <v>39</v>
@@ -762,19 +762,19 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
@@ -833,13 +833,13 @@
         <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD3" t="s">
         <v>46</v>
